--- a/A2/Written Questions/q1 HMM.xlsx
+++ b/A2/Written Questions/q1 HMM.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alexander/Documents/McGill Files/School/U3/COMP599/A2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Alexander/Documents/McGill Files/School/U3/COMP599/A2/Written Questions/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="16">
   <si>
     <t>not</t>
   </si>
@@ -80,9 +80,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.000E+00"/>
-    <numFmt numFmtId="166" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -94,6 +94,22 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -116,18 +132,19 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -139,8 +156,24 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -419,7 +452,7 @@
   <dimension ref="A1:Q30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -428,62 +461,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A1" s="6"/>
-      <c r="B1" s="6" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="6"/>
-      <c r="D1" s="6" t="s">
+      <c r="C1" s="5"/>
+      <c r="D1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6"/>
-      <c r="F1" s="6" t="s">
+      <c r="E1" s="5"/>
+      <c r="F1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6" t="s">
+      <c r="G1" s="5"/>
+      <c r="H1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="5"/>
+      <c r="J1" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A2" s="6" t="s">
+      <c r="A2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="7">
-        <f>1/8*1/6</f>
-        <v>2.0833333333333332E-2</v>
-      </c>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="9">
+        <f>B14*E25</f>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="9">
+        <f>B2*B19*D25</f>
+        <v>2.3809523809523807E-3</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="9">
+        <f>D4*B21*E25</f>
+        <v>8.1168831168831131E-4</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="7">
-        <f>B3*B20*C25</f>
-        <v>7.1022727272727264E-4</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="7">
-        <f>D4*B21*E25</f>
-        <v>3.5511363636363627E-4</v>
-      </c>
-      <c r="G2" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2" s="7">
+      <c r="H2" s="9">
         <f>F3*B20*B25</f>
-        <v>1.4527376033057846E-4</v>
-      </c>
-      <c r="I2" s="6" t="s">
+        <v>3.3205430932703645E-4</v>
+      </c>
+      <c r="I2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="7">
+      <c r="J2" s="9">
         <f>H2*B19*C25</f>
-        <v>4.8424586776859482E-6</v>
+        <v>1.1068476977567882E-5</v>
       </c>
       <c r="M2" t="s">
         <v>0</v>
@@ -502,40 +535,40 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="8">
-        <f>1/8*3/11</f>
-        <v>3.4090909090909088E-2</v>
-      </c>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="7">
+        <f>C14*E26</f>
+        <v>7.7922077922077906E-2</v>
+      </c>
+      <c r="C3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="7">
+      <c r="D3" s="9">
         <f>B2*C19*C26</f>
-        <v>1.1363636363636363E-3</v>
-      </c>
-      <c r="E3" s="6" t="s">
+        <v>3.8961038961038957E-3</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="7">
         <f>D4*C21*E26</f>
-        <v>2.3243801652892554E-3</v>
-      </c>
-      <c r="G3" s="6" t="s">
+        <v>5.3128689492325833E-3</v>
+      </c>
+      <c r="G3" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H3" s="8">
+      <c r="H3" s="7">
         <f>F3*C20*B26</f>
-        <v>2.1130728775356868E-4</v>
-      </c>
-      <c r="I3" s="6" t="s">
+        <v>4.829880862938712E-4</v>
+      </c>
+      <c r="I3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J3" s="7">
+      <c r="J3" s="9">
         <f>H2*C19*C26</f>
-        <v>7.9240232907588249E-6</v>
+        <v>1.8112053236020168E-5</v>
       </c>
       <c r="L3" t="s">
         <v>15</v>
@@ -557,50 +590,49 @@
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="7">
-        <f>1/8*1/10</f>
-        <v>1.2500000000000001E-2</v>
-      </c>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="9">
+        <f>D14*E27</f>
+        <v>2.8571428571428571E-2</v>
+      </c>
+      <c r="C4" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="8">
+      <c r="D4" s="7">
         <f>B3*D20*C27</f>
-        <v>1.4914772727272724E-2</v>
-      </c>
-      <c r="E4" s="6" t="s">
+        <v>3.4090909090909081E-2</v>
+      </c>
+      <c r="E4" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="7">
+      <c r="F4" s="9">
         <f>D4*D21*E27</f>
-        <v>4.2613636363636356E-4</v>
-      </c>
-      <c r="G4" s="6" t="s">
+        <v>9.740259740259737E-4</v>
+      </c>
+      <c r="G4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="H4" s="7">
+      <c r="H4" s="6">
         <f>F3*D20*B27</f>
-        <v>1.4527376033057846E-4</v>
-      </c>
-      <c r="I4" s="6" t="s">
+        <v>3.3205430932703645E-4</v>
+      </c>
+      <c r="I4" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="J4" s="8">
+      <c r="J4" s="7">
         <f>H3*D20*C27</f>
-        <v>9.2446938392186305E-5</v>
+        <v>2.1130728775356863E-4</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
+      <c r="A5" s="6"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="E5" s="6"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="6"/>
       <c r="I5" s="1"/>
       <c r="K5" s="1"/>
       <c r="L5" s="1"/>
@@ -614,13 +646,12 @@
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
       <c r="C6" s="1"/>
-      <c r="D6" s="7"/>
+      <c r="D6" s="9"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="7"/>
       <c r="G6" s="1"/>
-      <c r="H6" s="7"/>
+      <c r="H6" s="1"/>
       <c r="I6" s="1"/>
-      <c r="J6" s="7"/>
+      <c r="J6" s="9"/>
       <c r="K6" s="1"/>
       <c r="L6" s="1"/>
       <c r="M6" s="1"/>
@@ -725,53 +756,49 @@
       <c r="Q11" s="1"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="4"/>
-      <c r="E12" s="4"/>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8"/>
+      <c r="E12" s="11"/>
       <c r="F12" s="3"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C13" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>0</v>
-      </c>
+      <c r="A13" s="4"/>
+      <c r="B13" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" s="4"/>
       <c r="F13" s="3"/>
       <c r="G13" s="2"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.2">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B14" s="5">
-        <v>0.375</v>
-      </c>
-      <c r="C14" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="D14" s="5">
-        <v>0.25</v>
-      </c>
-      <c r="E14" s="5">
-        <v>0.125</v>
-      </c>
+      <c r="B14" s="4">
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="E14" s="4"/>
       <c r="F14" s="3"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
@@ -800,12 +827,12 @@
       <c r="I16" s="2"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
       <c r="G17" s="2"/>
@@ -813,14 +840,14 @@
       <c r="I17" s="2"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A18" s="5"/>
-      <c r="B18" s="5" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="5" t="s">
+      <c r="C18" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D18" s="5" t="s">
+      <c r="D18" s="4" t="s">
         <v>5</v>
       </c>
       <c r="E18" s="3"/>
@@ -830,16 +857,16 @@
       <c r="I18" s="2"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A19" s="5" t="s">
+      <c r="A19" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B19" s="5">
+      <c r="B19" s="4">
         <v>0.2</v>
       </c>
-      <c r="C19" s="5">
+      <c r="C19" s="4">
         <v>0.6</v>
       </c>
-      <c r="D19" s="5">
+      <c r="D19" s="4">
         <v>0.2</v>
       </c>
       <c r="E19" s="3"/>
@@ -849,32 +876,32 @@
       <c r="I19" s="2"/>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A20" s="5" t="s">
+      <c r="A20" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B20" s="5">
+      <c r="B20" s="4">
         <v>0.125</v>
       </c>
-      <c r="C20" s="5">
+      <c r="C20" s="4">
         <v>0.25</v>
       </c>
-      <c r="D20" s="5">
+      <c r="D20" s="4">
         <v>0.625</v>
       </c>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A21" s="5" t="s">
+      <c r="A21" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B21" s="5">
+      <c r="B21" s="4">
         <v>0.14285714285714285</v>
       </c>
-      <c r="C21" s="5">
+      <c r="C21" s="4">
         <v>0.5714285714285714</v>
       </c>
-      <c r="D21" s="5">
+      <c r="D21" s="4">
         <v>0.2857142857142857</v>
       </c>
       <c r="E21" s="3"/>
@@ -889,81 +916,81 @@
       <c r="F22" s="3"/>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A23" s="4" t="s">
+      <c r="A23" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="4"/>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="8"/>
       <c r="F23" s="3"/>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A24" s="5"/>
-      <c r="B24" s="5" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="C24" s="5" t="s">
+      <c r="C24" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E24" s="5" t="s">
+      <c r="E24" s="4" t="s">
         <v>0</v>
       </c>
       <c r="F24" s="3"/>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B25" s="5">
+      <c r="B25" s="4">
         <v>0.5</v>
       </c>
-      <c r="C25" s="5">
+      <c r="C25" s="4">
         <v>0.16666666666666666</v>
       </c>
-      <c r="D25" s="5">
+      <c r="D25" s="4">
         <v>0.16666666666666666</v>
       </c>
-      <c r="E25" s="5">
+      <c r="E25" s="4">
         <v>0.16666666666666666</v>
       </c>
       <c r="F25" s="3"/>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B26" s="5">
+      <c r="B26" s="4">
         <v>0.36363636363636365</v>
       </c>
-      <c r="C26" s="5">
+      <c r="C26" s="4">
         <v>9.0909090909090912E-2</v>
       </c>
-      <c r="D26" s="5">
+      <c r="D26" s="4">
         <v>0.27272727272727271</v>
       </c>
-      <c r="E26" s="5">
+      <c r="E26" s="4">
         <v>0.27272727272727271</v>
       </c>
       <c r="F26" s="3"/>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="B27" s="5">
+      <c r="B27" s="4">
         <v>0.1</v>
       </c>
-      <c r="C27" s="5">
+      <c r="C27" s="4">
         <v>0.7</v>
       </c>
-      <c r="D27" s="5">
+      <c r="D27" s="4">
         <v>0.1</v>
       </c>
-      <c r="E27" s="5">
+      <c r="E27" s="4">
         <v>0.1</v>
       </c>
       <c r="F27" s="3"/>
@@ -996,7 +1023,7 @@
   <mergeCells count="3">
     <mergeCell ref="A23:E23"/>
     <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A12:E12"/>
+    <mergeCell ref="A12:D12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
